--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1939827.400062863</v>
+        <v>1937414.487557057</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9779575.871198433</v>
+        <v>9779575.871198434</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13.91332762480668</v>
+        <v>332.2110827772213</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247628</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124593</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>168.1623262975219</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1622,7 +1622,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.3373217201527</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C17" t="n">
         <v>297.0487454286722</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783476</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6518993993761</v>
+        <v>268.9014443097203</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.9636154458405</v>
       </c>
       <c r="T17" t="n">
-        <v>106.9069841534688</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U17" t="n">
         <v>182.7710256165666</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C19" t="n">
-        <v>99.0226747562925</v>
+        <v>99.02267475629249</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587702</v>
+        <v>80.39132667587701</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423384</v>
+        <v>78.20981630423383</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059591</v>
+        <v>77.1969016805959</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669289</v>
+        <v>97.80166191669288</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198545</v>
+        <v>76.53086857198544</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750277</v>
+        <v>28.12827406750275</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.708006327712</v>
+        <v>20.70800632771198</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U19" t="n">
         <v>217.9876918632775</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X19" t="n">
         <v>157.4855090467018</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C20" t="n">
         <v>297.0487454286722</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783477</v>
+        <v>216.7084401886914</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449852</v>
+        <v>226.3836180449851</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.9636154458405</v>
+        <v>40.96361544584052</v>
       </c>
       <c r="T20" t="n">
         <v>135.6938237972848</v>
       </c>
       <c r="U20" t="n">
-        <v>108.9748906151687</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V20" t="n">
         <v>259.5281121277995</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,22 +2239,22 @@
         <v>111.607833839602</v>
       </c>
       <c r="C22" t="n">
-        <v>99.0226747562925</v>
+        <v>99.02267475629249</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587702</v>
+        <v>80.39132667587701</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423384</v>
+        <v>78.20981630423383</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059591</v>
+        <v>77.1969016805959</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669289</v>
+        <v>97.80166191669288</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198545</v>
+        <v>76.53086857198544</v>
       </c>
       <c r="I22" t="n">
         <v>28.12827406750277</v>
@@ -2287,25 +2287,25 @@
         <v>20.708006327712</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U22" t="n">
         <v>217.9876918632775</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X22" t="n">
         <v>157.4855090467018</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C23" t="n">
         <v>297.0487454286722</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783476</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F23" t="n">
         <v>338.6518993993761</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.9636154458405</v>
+        <v>40.96361544584052</v>
       </c>
       <c r="T23" t="n">
         <v>135.6938237972848</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,22 +2476,22 @@
         <v>111.607833839602</v>
       </c>
       <c r="C25" t="n">
-        <v>99.0226747562925</v>
+        <v>99.02267475629249</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587702</v>
+        <v>80.39132667587701</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423384</v>
+        <v>78.20981630423383</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059591</v>
+        <v>77.1969016805959</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669289</v>
+        <v>97.80166191669288</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198545</v>
+        <v>76.53086857198544</v>
       </c>
       <c r="I25" t="n">
         <v>28.12827406750277</v>
@@ -2524,25 +2524,25 @@
         <v>20.708006327712</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U25" t="n">
         <v>217.9876918632775</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X25" t="n">
         <v>157.4855090467018</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348616</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,13 +2615,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374598</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3281,7 +3281,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>239.4866237999594</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>231.0452163728801</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>111.769039134917</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>98.69583361727818</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302253</v>
       </c>
       <c r="C41" t="n">
         <v>293.3142984377523</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390066</v>
+        <v>309.9717767390065</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084563</v>
+        <v>334.9174524084562</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201983</v>
+        <v>293.0767011150994</v>
       </c>
       <c r="H41" t="n">
-        <v>155.5062281179693</v>
+        <v>222.6491710540652</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.22916845492064</v>
       </c>
       <c r="T41" t="n">
         <v>131.9593768063649</v>
@@ -3797,16 +3797,16 @@
         <v>179.0365786256468</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W41" t="n">
         <v>277.2823753841578</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452139</v>
+        <v>297.7725073452138</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,22 +3898,22 @@
         <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537262</v>
+        <v>95.28822776537261</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495715</v>
+        <v>76.65687968495713</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331396</v>
+        <v>74.47536931331395</v>
       </c>
       <c r="F43" t="n">
-        <v>104.8751109252182</v>
+        <v>73.46245468967602</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577302</v>
+        <v>94.067214925773</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106557</v>
+        <v>72.79642158106556</v>
       </c>
       <c r="I43" t="n">
         <v>24.39382707658289</v>
@@ -3952,7 +3952,7 @@
         <v>147.590355942914</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723576</v>
+        <v>245.6659011078998</v>
       </c>
       <c r="V43" t="n">
         <v>180.1790499905728</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302253</v>
       </c>
       <c r="C44" t="n">
         <v>293.3142984377523</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874278</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390066</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084563</v>
+        <v>334.9174524084562</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201982</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540653</v>
+        <v>172.4551712651751</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492063</v>
+        <v>37.22916845492058</v>
       </c>
       <c r="T44" t="n">
-        <v>86.0729456012659</v>
+        <v>131.9593768063649</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256468</v>
+        <v>179.0365786256467</v>
       </c>
       <c r="V44" t="n">
         <v>255.7936651368797</v>
@@ -4040,10 +4040,10 @@
         <v>277.2823753841578</v>
       </c>
       <c r="X44" t="n">
-        <v>297.7725073452139</v>
+        <v>297.7725073452138</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486821</v>
+        <v>107.873386848682</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537262</v>
+        <v>95.28822776537258</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495715</v>
+        <v>76.6568796849571</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331396</v>
+        <v>74.47536931331392</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967604</v>
+        <v>73.46245468967599</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577302</v>
+        <v>94.06721492577297</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106557</v>
+        <v>72.79642158106553</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658289</v>
+        <v>24.39382707658286</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679212</v>
+        <v>16.97355933679209</v>
       </c>
       <c r="S46" t="n">
         <v>117.8104319981867</v>
       </c>
       <c r="T46" t="n">
-        <v>147.590355942914</v>
+        <v>179.0030121784562</v>
       </c>
       <c r="U46" t="n">
         <v>214.2532448723576</v>
       </c>
       <c r="V46" t="n">
-        <v>211.5917062261149</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W46" t="n">
         <v>214.5644050033358</v>
@@ -5018,19 +5018,19 @@
         <v>1301.367519464213</v>
       </c>
       <c r="C11" t="n">
-        <v>979.854635471875</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="D11" t="n">
-        <v>669.0385698131978</v>
+        <v>990.5514538055355</v>
       </c>
       <c r="E11" t="n">
-        <v>330.6999501630269</v>
+        <v>652.2128341553646</v>
       </c>
       <c r="F11" t="n">
-        <v>330.6999501630269</v>
+        <v>652.2128341553646</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218343</v>
@@ -5042,34 +5042,34 @@
         <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
         <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
         <v>2898.155827638545</v>
@@ -5084,7 +5084,7 @@
         <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580262</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,67 +5173,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254615</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268792</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770422</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998341</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657652</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315258</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328083</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337109</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
         <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
         <v>1247.547945832862</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1627.38364477722</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1305.870760784881</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806479</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391137</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5276,37 +5276,37 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
         <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
         <v>2898.155827638545</v>
@@ -5315,13 +5315,13 @@
         <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921007</v>
+        <v>2393.999824030772</v>
       </c>
       <c r="X14" t="n">
-        <v>2309.223550921007</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>1966.533851893268</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254603</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268781</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F16" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337118</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5449,10 +5449,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5461,25 +5461,25 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1543.53169409007</v>
+        <v>1473.076688949004</v>
       </c>
       <c r="C17" t="n">
-        <v>1243.48245628333</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D17" t="n">
-        <v>954.1300368102518</v>
+        <v>883.675031669186</v>
       </c>
       <c r="E17" t="n">
-        <v>637.2550633456797</v>
+        <v>566.8000582046138</v>
       </c>
       <c r="F17" t="n">
-        <v>295.1824376897442</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897442</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.228432269939</v>
       </c>
       <c r="T17" t="n">
-        <v>3217.618968928899</v>
+        <v>3147.163963787833</v>
       </c>
       <c r="U17" t="n">
-        <v>3033.001771336408</v>
+        <v>2962.546766195342</v>
       </c>
       <c r="V17" t="n">
-        <v>2770.852163126509</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W17" t="n">
-        <v>2486.996786990067</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.44430786266</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y17" t="n">
-        <v>1861.21825502052</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,7 +5598,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5650,16 +5650,16 @@
         <v>609.220726506103</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118682</v>
+        <v>509.1978227118681</v>
       </c>
       <c r="D19" t="n">
         <v>427.9944624332045</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844835</v>
+        <v>348.9946479844834</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202452</v>
+        <v>271.0179796202451</v>
       </c>
       <c r="G19" t="n">
         <v>172.2284221286362</v>
@@ -5668,7 +5668,7 @@
         <v>94.92451448016601</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,22 +5698,22 @@
         <v>1935.002113029365</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U19" t="n">
         <v>1439.186583952377</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W19" t="n">
         <v>1032.911483976874</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125287</v>
+        <v>873.8352122125286</v>
       </c>
       <c r="Y19" t="n">
         <v>721.9559122026707</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1547.618239455466</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C20" t="n">
-        <v>1247.569001648726</v>
+        <v>1173.027451142263</v>
       </c>
       <c r="D20" t="n">
-        <v>958.2165821756478</v>
+        <v>954.1300368102518</v>
       </c>
       <c r="E20" t="n">
-        <v>641.3416087110757</v>
+        <v>637.2550633456797</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110757</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1824376897442</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5765,13 +5765,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5783,19 +5783,19 @@
         <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3037.088316701803</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2774.938708491904</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W20" t="n">
-        <v>2491.083332355463</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2186.530853228055</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y20" t="n">
-        <v>1865.304800385916</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5820,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,16 +5832,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5887,16 +5887,16 @@
         <v>609.220726506103</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118682</v>
+        <v>509.1978227118681</v>
       </c>
       <c r="D22" t="n">
         <v>427.9944624332045</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844835</v>
+        <v>348.9946479844834</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202452</v>
+        <v>271.0179796202451</v>
       </c>
       <c r="G22" t="n">
         <v>172.2284221286362</v>
@@ -5908,25 +5908,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.701494551991</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.30899498565</v>
       </c>
       <c r="Q22" t="n">
         <v>1955.919291138165</v>
@@ -5935,22 +5935,22 @@
         <v>1935.002113029365</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U22" t="n">
         <v>1439.186583952377</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W22" t="n">
         <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125287</v>
+        <v>873.8352122125286</v>
       </c>
       <c r="Y22" t="n">
         <v>721.9559122026707</v>
@@ -5969,55 +5969,55 @@
         <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957347</v>
+        <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927746</v>
+        <v>991.9165644927743</v>
       </c>
       <c r="F23" t="n">
-        <v>649.843938836839</v>
+        <v>649.8439388368388</v>
       </c>
       <c r="G23" t="n">
         <v>303.6847678155074</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794664</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794664</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2992265373251</v>
+        <v>361.9270325896031</v>
       </c>
       <c r="K23" t="n">
-        <v>765.1186002271716</v>
+        <v>695.7464062794495</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.15281347558</v>
+        <v>1146.780619527858</v>
       </c>
       <c r="M23" t="n">
-        <v>1998.893245289551</v>
+        <v>1680.312524199783</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.672062348333</v>
+        <v>2227.091341258565</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.64453322767</v>
+        <v>2730.063812137902</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584849</v>
+        <v>3443.418899584847</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340531</v>
+        <v>3691.705261340529</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897333</v>
+        <v>3750.722327897332</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558101</v>
+        <v>3709.344938558099</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075994</v>
+        <v>3572.280470075993</v>
       </c>
       <c r="U23" t="n">
         <v>3387.663272483503</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068715</v>
+        <v>950.0461846068719</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257445</v>
+        <v>775.5931553257449</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644934</v>
+        <v>626.6587456644936</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590378</v>
+        <v>467.4212906590382</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859229</v>
+        <v>320.8867326859231</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185414</v>
+        <v>184.5236325185412</v>
       </c>
       <c r="H24" t="n">
-        <v>94.0217381564089</v>
+        <v>94.0217381564087</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794664</v>
       </c>
       <c r="J24" t="n">
-        <v>168.691716048564</v>
+        <v>168.6917160485639</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9559150289111</v>
+        <v>406.955915028911</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415767</v>
+        <v>773.6540753415763</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.930400563893</v>
+        <v>1220.930400563892</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453444118347</v>
@@ -6105,10 +6105,10 @@
         <v>1788.110677325628</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.873320597426</v>
+        <v>1533.873320597427</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.021820391893</v>
+        <v>1326.021820391894</v>
       </c>
       <c r="Y24" t="n">
         <v>1118.26152162694</v>
@@ -6127,7 +6127,7 @@
         <v>517.7001528376314</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589678</v>
+        <v>436.4967925589677</v>
       </c>
       <c r="E25" t="n">
         <v>357.4969781102467</v>
@@ -6139,34 +6139,34 @@
         <v>180.7307522543994</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059293</v>
+        <v>103.4268446059292</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794664</v>
       </c>
       <c r="J25" t="n">
         <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1242619537586</v>
+        <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022548</v>
+        <v>640.6840604022545</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018038</v>
+        <v>1013.465849051477</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.249482707668</v>
+        <v>1354.874225757341</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.579081628082</v>
+        <v>1654.203824677754</v>
       </c>
       <c r="P25" t="n">
-        <v>1858.186582061741</v>
+        <v>1886.811325111414</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263929</v>
+        <v>1964.421621263928</v>
       </c>
       <c r="R25" t="n">
         <v>1943.504443155128</v>
@@ -6178,7 +6178,7 @@
         <v>1667.878501818825</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.688914078141</v>
+        <v>1447.68891407814</v>
       </c>
       <c r="V25" t="n">
         <v>1261.917705005926</v>
@@ -6206,70 +6206,70 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>393.2994530991692</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>727.1188267890157</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1178.153040037424</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M26" t="n">
-        <v>1711.684944709349</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2258.463761768131</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647468</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,49 +6449,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226677</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>3182.560655874485</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6616,7 +6616,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2410.244144161089</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871313</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982168</v>
@@ -6868,40 +6868,40 @@
         <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6926,13 @@
         <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912096</v>
@@ -6944,28 +6944,28 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -7011,22 +7011,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647791</v>
+        <v>500.9308303909355</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368722</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245365</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1131.361425262723</v>
+        <v>934.0185561150357</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.043308938549</v>
+        <v>804.7004397908619</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.2507297950189</v>
+        <v>583.9078606473317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464961</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830732</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064531</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7281,22 +7281,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.8926667912278</v>
+        <v>453.7336441225991</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630288</v>
+        <v>383.4688957685356</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245365</v>
+        <v>332.0236909300434</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>282.7820319214937</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
         <v>315.6219318279954</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1323.410616184332</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552289</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891715</v>
+        <v>985.4928044205428</v>
       </c>
       <c r="X40" t="n">
-        <v>748.6622761911542</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.8696970476241</v>
+        <v>635.3821089528388</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1799.236698564315</v>
+        <v>1820.707922535019</v>
       </c>
       <c r="C41" t="n">
-        <v>1502.959629435273</v>
+        <v>1524.430853405976</v>
       </c>
       <c r="D41" t="n">
-        <v>1217.379378639891</v>
+        <v>1238.850602610595</v>
       </c>
       <c r="E41" t="n">
-        <v>904.2765738530157</v>
+        <v>925.7477978237196</v>
       </c>
       <c r="F41" t="n">
-        <v>565.9761168747771</v>
+        <v>587.447340845481</v>
       </c>
       <c r="G41" t="n">
-        <v>223.5891145311423</v>
+        <v>291.4102690120473</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296686</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.000600947634</v>
       </c>
       <c r="T41" t="n">
-        <v>3192.313521804762</v>
+        <v>3154.708301143225</v>
       </c>
       <c r="U41" t="n">
-        <v>3011.468492889967</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V41" t="n">
-        <v>3011.468492889967</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W41" t="n">
-        <v>2731.385285431222</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X41" t="n">
-        <v>2430.604974981511</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y41" t="n">
-        <v>2113.151090817069</v>
+        <v>2134.622314787772</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,34 +7506,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.545501555702</v>
+        <v>582.815545762225</v>
       </c>
       <c r="C43" t="n">
-        <v>518.2947664391641</v>
+        <v>486.5648106456871</v>
       </c>
       <c r="D43" t="n">
-        <v>440.8635748381972</v>
+        <v>409.1336190447203</v>
       </c>
       <c r="E43" t="n">
-        <v>365.635929067173</v>
+        <v>333.9059732736961</v>
       </c>
       <c r="F43" t="n">
         <v>259.7014735871546</v>
@@ -7567,16 +7567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.14953865739</v>
+        <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295585</v>
+        <v>1791.149102295584</v>
       </c>
       <c r="T43" t="n">
         <v>1642.06793467648</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999055</v>
       </c>
       <c r="X43" t="n">
-        <v>871.615649906734</v>
+        <v>839.885694113257</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.5085185745728</v>
+        <v>691.7785627810958</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.057853045221</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461526</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339207</v>
+        <v>921.3967184461526</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556819</v>
+        <v>583.0962614679142</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242795</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7652,10 +7652,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7664,7 +7664,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
-        <v>3201.058231653426</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>3020.213202738631</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2761.835763206429</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2481.752555747684</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X44" t="n">
-        <v>2180.972245297974</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.972245297974</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,34 +7743,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622252</v>
+        <v>582.8155457622248</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456871</v>
+        <v>486.5648106456869</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447203</v>
+        <v>409.1336190447201</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736961</v>
+        <v>333.9059732736959</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871546</v>
+        <v>259.7014735871545</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732425</v>
+        <v>164.6840847732424</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246917</v>
+        <v>91.15234580246914</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.14953865739</v>
+        <v>1910.149538657389</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295585</v>
+        <v>1791.149102295584</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V46" t="n">
         <v>1211.921519425497</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999056</v>
+        <v>995.1897971999052</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8856941132572</v>
+        <v>839.8856941132568</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.778562781096</v>
+        <v>691.7785627810956</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331813</v>
+        <v>161.2833466331815</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772615</v>
+        <v>190.470899677262</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114939</v>
+        <v>199.0214867114945</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499972</v>
+        <v>189.4604205499978</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253959</v>
+        <v>187.8656757253965</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001306</v>
+        <v>190.8661912001312</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610382</v>
+        <v>197.7493741610387</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168184</v>
+        <v>197.1608845168188</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723704</v>
+        <v>115.0671825723705</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484545</v>
+        <v>117.7238752484548</v>
       </c>
       <c r="L9" t="n">
-        <v>111.503832688832</v>
+        <v>111.5038326888324</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586508</v>
+        <v>110.5673213586513</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809825</v>
+        <v>98.93952256809874</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195527</v>
+        <v>112.9545713195531</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755403</v>
+        <v>110.1843514755407</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137825</v>
+        <v>124.0787517137828</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747618</v>
+        <v>119.356265474762</v>
       </c>
       <c r="M10" t="n">
-        <v>122.553251996029</v>
+        <v>122.5532519960293</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290574</v>
+        <v>111.7023147290576</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297872</v>
+        <v>123.6934388297874</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182094</v>
+        <v>125.0956219182096</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.161737372967764e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>99.02369199255668</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>251.7257849919658</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5185911550046</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>165.3902622431564</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>231.1066821161388</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>174.4519134245555</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.7354935515754</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>21.13839585591369</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0698909884586</v>
+        <v>15.06989098845861</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>350.0332614100542</v>
+        <v>31.73550625763957</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>139.5455787045685</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.92851037866778</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>69.75045508965576</v>
       </c>
       <c r="G17" t="n">
         <v>342.6975793111181</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.9636154458405</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>28.78683964381598</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>69.75045508965621</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6518993993761</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>73.79613500139793</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>45.8864312050988</v>
       </c>
       <c r="H41" t="n">
-        <v>67.14294293609592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492063</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368797</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="42">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390065</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889015</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>45.88643120509904</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>912141.5653397901</v>
+        <v>912141.5653397903</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776729.8891900894</v>
+        <v>776729.8891900893</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>800409.7856262282</v>
+        <v>800409.7856262283</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>800409.7856262283</v>
+        <v>800409.7856262282</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862069.7278169328</v>
+        <v>862069.7278169331</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862069.727816933</v>
+        <v>862069.7278169331</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>804571.4533529093</v>
+        <v>804571.4533529092</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>804571.4533529092</v>
+        <v>804571.4533529095</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="D2" t="n">
-        <v>614471.1549754216</v>
+        <v>614471.1549754213</v>
       </c>
       <c r="E2" t="n">
-        <v>573398.257417382</v>
+        <v>573398.2574173816</v>
       </c>
       <c r="F2" t="n">
-        <v>573398.2574173827</v>
+        <v>573398.2574173815</v>
       </c>
       <c r="G2" t="n">
-        <v>591158.1797444859</v>
+        <v>591158.1797444872</v>
       </c>
       <c r="H2" t="n">
-        <v>591158.1797444861</v>
+        <v>591158.1797444863</v>
       </c>
       <c r="I2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="J2" t="n">
+        <v>615781.327398213</v>
+      </c>
+      <c r="K2" t="n">
         <v>615781.3273982126</v>
       </c>
-      <c r="K2" t="n">
-        <v>615781.3273982127</v>
-      </c>
       <c r="L2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="O2" t="n">
-        <v>594279.4305394979</v>
+        <v>594279.4305394978</v>
       </c>
       <c r="P2" t="n">
-        <v>594279.4305394975</v>
+        <v>594279.4305394978</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264919</v>
+        <v>49603.99004264845</v>
       </c>
       <c r="E3" t="n">
         <v>1114814.601112468</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899422</v>
+        <v>16999.20777899425</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.8516171636</v>
+        <v>28261.85161716354</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225405</v>
+        <v>40637.45238225422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899421</v>
+        <v>16999.20777899418</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927244</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>434286.8804955492</v>
+        <v>434286.8804955495</v>
       </c>
       <c r="E4" t="n">
-        <v>60045.38930863542</v>
+        <v>60045.38930863547</v>
       </c>
       <c r="F4" t="n">
-        <v>60045.38930863547</v>
+        <v>60045.38930863544</v>
       </c>
       <c r="G4" t="n">
-        <v>73454.04572443686</v>
+        <v>73454.04572443689</v>
       </c>
       <c r="H4" t="n">
-        <v>73454.04572443687</v>
+        <v>73454.04572443689</v>
       </c>
       <c r="I4" t="n">
-        <v>90253.02344554523</v>
+        <v>90253.02344554524</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699575</v>
+        <v>88960.95519699594</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.9551969959</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699577</v>
+        <v>88960.95519699584</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="N4" t="n">
         <v>92183.89891818169</v>
       </c>
       <c r="O4" t="n">
-        <v>75820.46586589146</v>
+        <v>75820.46586589151</v>
       </c>
       <c r="P4" t="n">
-        <v>75820.46586589149</v>
+        <v>75820.46586589156</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.2685025347</v>
+        <v>34890.26850253468</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.87632024707</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582715</v>
+        <v>86503.64721582714</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,10 +26500,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>80355.82754432672</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128429.6634888136</v>
+        <v>128425.2499109454</v>
       </c>
       <c r="C6" t="n">
-        <v>128429.6634888135</v>
+        <v>128425.2499109453</v>
       </c>
       <c r="D6" t="n">
-        <v>95690.01593468846</v>
+        <v>95685.64869327935</v>
       </c>
       <c r="E6" t="n">
-        <v>-679717.2263255029</v>
+        <v>-679858.5032254397</v>
       </c>
       <c r="F6" t="n">
-        <v>435097.3747869657</v>
+        <v>434956.097887028</v>
       </c>
       <c r="G6" t="n">
-        <v>420663.0499208077</v>
+        <v>420580.9727619633</v>
       </c>
       <c r="H6" t="n">
-        <v>437662.2576998022</v>
+        <v>437580.1805409567</v>
       </c>
       <c r="I6" t="n">
         <v>410762.8051196764</v>
@@ -26546,22 +26546,22 @@
         <v>396804.9781441567</v>
       </c>
       <c r="K6" t="n">
-        <v>437442.4305264109</v>
+        <v>437442.4305264106</v>
       </c>
       <c r="L6" t="n">
         <v>420443.2227474163</v>
       </c>
       <c r="M6" t="n">
-        <v>238910.7311810566</v>
+        <v>238910.7311810571</v>
       </c>
       <c r="N6" t="n">
-        <v>441078.8311737817</v>
+        <v>441078.8311737816</v>
       </c>
       <c r="O6" t="n">
-        <v>438103.1371292797</v>
+        <v>438031.4641397505</v>
       </c>
       <c r="P6" t="n">
-        <v>438103.1371292793</v>
+        <v>438031.4641397505</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076604</v>
+        <v>57.92057351076517</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743333</v>
+        <v>937.680581974333</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374277</v>
+        <v>21.24900972374281</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484976</v>
+        <v>25.72612689484978</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374276</v>
+        <v>21.24900972374273</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951253</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076604</v>
+        <v>57.92057351076517</v>
       </c>
       <c r="E3" t="n">
         <v>1031.856127082533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720406</v>
+        <v>106.2791265720404</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428109</v>
+        <v>76.65587923428166</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959714</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374277</v>
+        <v>21.24900972374281</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484976</v>
+        <v>25.72612689484978</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507122</v>
+        <v>201.4990738507123</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098104</v>
+        <v>135.2425723098106</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596058</v>
+        <v>203.7140793596059</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858948</v>
+        <v>85.10723188858954</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643177</v>
+        <v>92.42270548643188</v>
       </c>
       <c r="S9" t="n">
         <v>169.3690802659313</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112974</v>
+        <v>152.3094707112975</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284937</v>
+        <v>85.97478175284948</v>
       </c>
       <c r="K10" t="n">
-        <v>10.1346569165781</v>
+        <v>10.13465691657828</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156872</v>
+        <v>77.41603665156885</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348047</v>
+        <v>172.5970773348048</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1963728005765</v>
+        <v>222.1963728005766</v>
       </c>
       <c r="T10" t="n">
         <v>227.499316156969</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.91388186835603</v>
+        <v>28.91388186835579</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.91388186835627</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.91388186835603</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.91388186835673</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.91388186835603</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859381</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,25 +30189,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>55.4777819637109</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>55.47778196371085</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>46.72521440565306</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="F43" t="n">
-        <v>40.54593709771302</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325521</v>
+        <v>40.54593709771308</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325522</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325521</v>
+        <v>40.54593709771302</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="V46" t="n">
-        <v>40.54593709771308</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325525</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764462</v>
+        <v>0.2328465266764427</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325156</v>
+        <v>2.38463949132512</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693702</v>
+        <v>8.976815719693567</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350504</v>
+        <v>19.76255789350475</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771902</v>
+        <v>29.61895136771858</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849332</v>
+        <v>36.74492825849277</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727557</v>
+        <v>40.88581267727496</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119502</v>
+        <v>41.5473878711944</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155611</v>
+        <v>39.23202022155552</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423134</v>
+        <v>33.48362159423083</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.1448053576311</v>
+        <v>25.14480535763072</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133933</v>
+        <v>14.62654563133911</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639524</v>
+        <v>5.305990226639444</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526144</v>
+        <v>1.019285670526129</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411569</v>
+        <v>0.01862772213411542</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986289</v>
+        <v>0.124583875098627</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610442</v>
+        <v>1.203217951610424</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825599</v>
+        <v>4.289400962825535</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429634</v>
+        <v>11.77044409429616</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590447</v>
+        <v>20.11756372590417</v>
       </c>
       <c r="L9" t="n">
-        <v>27.0505470910422</v>
+        <v>27.0505470910418</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336749</v>
+        <v>31.56671256336702</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523505</v>
+        <v>32.40218951523457</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489175</v>
+        <v>29.64167312489131</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593878993</v>
+        <v>23.79005593878957</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223901</v>
+        <v>15.90302237223877</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211362</v>
+        <v>7.735128666211247</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906547</v>
+        <v>2.314090837906513</v>
       </c>
       <c r="T9" t="n">
-        <v>0.502160443928245</v>
+        <v>0.5021604439282376</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278216</v>
+        <v>0.008196307572278095</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390863</v>
+        <v>0.1044469358390847</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693315</v>
+        <v>0.9286282113693176</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960887</v>
+        <v>3.14100421596084</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823401</v>
+        <v>7.38439836382329</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930475</v>
+        <v>12.13483490930457</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647652</v>
+        <v>15.52841080647629</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157604</v>
+        <v>16.3725319515758</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617583</v>
+        <v>15.98322973617559</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205558</v>
+        <v>14.76309962205536</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093821</v>
+        <v>12.63238213093802</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125671</v>
+        <v>8.746006600125542</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364733</v>
+        <v>4.696314042364663</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395712</v>
+        <v>1.820225236395685</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124595</v>
+        <v>0.4462732713124528</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222895</v>
+        <v>0.005697105591222809</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.3081204062497</v>
+        <v>107.3081204062494</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>331.267012090996</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.3081204062497</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>289.8106929612692</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>790.6469008221926</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618405</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3081204062497</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>315.3055921237172</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>673.4432631313754</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36832,28 +36832,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>770.0277979463654</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>573.2138996439273</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>647.6566093818019</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>80.75159439813847</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629118</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861339</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129101</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
